--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LE TUAN THANH\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE56134E-5E3A-471F-BA31-CF6F814C152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C47ED76-3275-4FB1-B920-110FD2AF52EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CD264BB5-0AB6-40D1-A437-CE1BA4B9738F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="530">
   <si>
     <t>HOME FOR RENT (T18)</t>
   </si>
@@ -1623,6 +1623,9 @@
   </si>
   <si>
     <t>Script</t>
+  </si>
+  <si>
+    <t>2012/2/2</t>
   </si>
 </sst>
 </file>
@@ -1664,12 +1667,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1989,7 +1993,7 @@
   <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1998,7 +2002,7 @@
     <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="120.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2015,7 +2019,7 @@
       <c r="D1" t="s">
         <v>526</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>527</v>
       </c>
       <c r="F1" t="s">
@@ -2035,8 +2039,8 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
-        <v>44933</v>
+      <c r="E2" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -2055,8 +2059,8 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2">
-        <v>44934</v>
+      <c r="E3" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -2075,8 +2079,8 @@
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>44935</v>
+      <c r="E4" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>4</v>
@@ -2095,8 +2099,8 @@
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
-        <v>44936</v>
+      <c r="E5" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
@@ -2115,8 +2119,8 @@
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="2">
-        <v>44937</v>
+      <c r="E6" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>4</v>
@@ -2135,8 +2139,8 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="2">
-        <v>44938</v>
+      <c r="E7" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>4</v>
@@ -2155,8 +2159,8 @@
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="2">
-        <v>44939</v>
+      <c r="E8" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>4</v>
@@ -2175,8 +2179,8 @@
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
-        <v>44940</v>
+      <c r="E9" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>4</v>
@@ -2195,8 +2199,8 @@
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2">
-        <v>44941</v>
+      <c r="E10" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>4</v>
@@ -2215,8 +2219,8 @@
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="2">
-        <v>44942</v>
+      <c r="E11" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>4</v>
@@ -2235,8 +2239,8 @@
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="2">
-        <v>44943</v>
+      <c r="E12" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>4</v>
@@ -2255,8 +2259,8 @@
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2">
-        <v>44944</v>
+      <c r="E13" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>4</v>
@@ -2275,8 +2279,8 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="2">
-        <v>44945</v>
+      <c r="E14" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>4</v>
@@ -2295,8 +2299,8 @@
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2">
-        <v>44946</v>
+      <c r="E15" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>4</v>
@@ -2315,8 +2319,8 @@
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="2">
-        <v>44947</v>
+      <c r="E16" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>4</v>
@@ -2335,8 +2339,8 @@
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="2">
-        <v>44948</v>
+      <c r="E17" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>4</v>
@@ -2355,8 +2359,8 @@
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="2">
-        <v>44949</v>
+      <c r="E18" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>4</v>
@@ -2375,8 +2379,8 @@
       <c r="D19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="2">
-        <v>44950</v>
+      <c r="E19" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>4</v>
@@ -2395,8 +2399,8 @@
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2">
-        <v>44951</v>
+      <c r="E20" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>4</v>
@@ -2415,8 +2419,8 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="2">
-        <v>44952</v>
+      <c r="E21" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>4</v>
@@ -2435,8 +2439,8 @@
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="2">
-        <v>44953</v>
+      <c r="E22" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>4</v>
@@ -2455,8 +2459,8 @@
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E23" s="2">
-        <v>44954</v>
+      <c r="E23" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>4</v>
@@ -2475,8 +2479,8 @@
       <c r="D24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2">
-        <v>44955</v>
+      <c r="E24" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>4</v>
@@ -2495,8 +2499,8 @@
       <c r="D25" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="2">
-        <v>44956</v>
+      <c r="E25" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>4</v>
@@ -2515,8 +2519,8 @@
       <c r="D26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="2">
-        <v>44957</v>
+      <c r="E26" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>4</v>
@@ -2535,8 +2539,8 @@
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E27" s="2">
-        <v>44958</v>
+      <c r="E27" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>4</v>
@@ -2555,8 +2559,8 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2">
-        <v>44959</v>
+      <c r="E28" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>4</v>
@@ -2575,8 +2579,8 @@
       <c r="D29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="2">
-        <v>44960</v>
+      <c r="E29" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>4</v>
@@ -2595,8 +2599,8 @@
       <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2">
-        <v>44961</v>
+      <c r="E30" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>4</v>
@@ -2615,8 +2619,8 @@
       <c r="D31" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E31" s="2">
-        <v>44962</v>
+      <c r="E31" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>4</v>
@@ -2635,8 +2639,8 @@
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="2">
-        <v>44963</v>
+      <c r="E32" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>4</v>
@@ -2655,8 +2659,8 @@
       <c r="D33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="2">
-        <v>44964</v>
+      <c r="E33" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>4</v>
@@ -2675,8 +2679,8 @@
       <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="2">
-        <v>44965</v>
+      <c r="E34" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>4</v>
@@ -2695,8 +2699,8 @@
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="2">
-        <v>44966</v>
+      <c r="E35" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>4</v>
@@ -2715,8 +2719,8 @@
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="2">
-        <v>44967</v>
+      <c r="E36" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>4</v>
@@ -2735,8 +2739,8 @@
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
-        <v>44968</v>
+      <c r="E37" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>4</v>
@@ -2755,8 +2759,8 @@
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="2">
-        <v>44969</v>
+      <c r="E38" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>4</v>
@@ -2775,8 +2779,8 @@
       <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="2">
-        <v>44970</v>
+      <c r="E39" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>4</v>
@@ -2795,8 +2799,8 @@
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="2">
-        <v>44971</v>
+      <c r="E40" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>4</v>
@@ -2815,8 +2819,8 @@
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="2">
-        <v>44972</v>
+      <c r="E41" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>4</v>
@@ -2835,8 +2839,8 @@
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="2">
-        <v>44973</v>
+      <c r="E42" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>4</v>
@@ -2855,8 +2859,8 @@
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="2">
-        <v>44974</v>
+      <c r="E43" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>4</v>
@@ -2875,8 +2879,8 @@
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="2">
-        <v>44975</v>
+      <c r="E44" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>4</v>
@@ -2895,8 +2899,8 @@
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2">
-        <v>44976</v>
+      <c r="E45" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>4</v>
@@ -2915,8 +2919,8 @@
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="2">
-        <v>44977</v>
+      <c r="E46" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>4</v>
@@ -2935,8 +2939,8 @@
       <c r="D47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="2">
-        <v>44978</v>
+      <c r="E47" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>4</v>
@@ -2955,8 +2959,8 @@
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="2">
-        <v>44979</v>
+      <c r="E48" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>4</v>
@@ -2975,8 +2979,8 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="2">
-        <v>44980</v>
+      <c r="E49" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>4</v>
@@ -2995,8 +2999,8 @@
       <c r="D50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="2">
-        <v>44981</v>
+      <c r="E50" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>4</v>
@@ -3015,8 +3019,8 @@
       <c r="D51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="2">
-        <v>44982</v>
+      <c r="E51" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>4</v>
@@ -3035,8 +3039,8 @@
       <c r="D52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2">
-        <v>44983</v>
+      <c r="E52" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>4</v>
@@ -3055,8 +3059,8 @@
       <c r="D53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="2">
-        <v>44984</v>
+      <c r="E53" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>4</v>
@@ -3075,8 +3079,8 @@
       <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
-        <v>44985</v>
+      <c r="E54" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>4</v>
@@ -3095,8 +3099,8 @@
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="2">
-        <v>44986</v>
+      <c r="E55" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>4</v>
@@ -3115,8 +3119,8 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="2">
-        <v>44987</v>
+      <c r="E56" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>4</v>
@@ -3135,8 +3139,8 @@
       <c r="D57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="2">
-        <v>44988</v>
+      <c r="E57" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>4</v>
@@ -3155,8 +3159,8 @@
       <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="2">
-        <v>44989</v>
+      <c r="E58" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>4</v>
@@ -3175,8 +3179,8 @@
       <c r="D59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="2">
-        <v>44990</v>
+      <c r="E59" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>4</v>
@@ -3195,8 +3199,8 @@
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="2">
-        <v>44991</v>
+      <c r="E60" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>4</v>
@@ -3215,8 +3219,8 @@
       <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="2">
-        <v>44992</v>
+      <c r="E61" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>4</v>
@@ -3235,8 +3239,8 @@
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="2">
-        <v>44993</v>
+      <c r="E62" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>4</v>
@@ -3255,8 +3259,8 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="2">
-        <v>44994</v>
+      <c r="E63" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>4</v>
@@ -3275,8 +3279,8 @@
       <c r="D64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E64" s="2">
-        <v>44995</v>
+      <c r="E64" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>4</v>
@@ -3295,8 +3299,8 @@
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="2">
-        <v>44996</v>
+      <c r="E65" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>4</v>
@@ -3315,8 +3319,8 @@
       <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E66" s="2">
-        <v>44997</v>
+      <c r="E66" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>4</v>
@@ -3335,8 +3339,8 @@
       <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="2">
-        <v>44998</v>
+      <c r="E67" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>4</v>
@@ -3355,8 +3359,8 @@
       <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="2">
-        <v>44999</v>
+      <c r="E68" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>4</v>
@@ -3375,8 +3379,8 @@
       <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="2">
-        <v>45000</v>
+      <c r="E69" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>4</v>
@@ -3395,8 +3399,8 @@
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="2">
-        <v>45001</v>
+      <c r="E70" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>4</v>
@@ -3415,8 +3419,8 @@
       <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="2">
-        <v>45002</v>
+      <c r="E71" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>4</v>
@@ -3435,8 +3439,8 @@
       <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="2">
-        <v>45003</v>
+      <c r="E72" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>4</v>
@@ -3455,8 +3459,8 @@
       <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" s="2">
-        <v>45004</v>
+      <c r="E73" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>4</v>
@@ -3475,8 +3479,8 @@
       <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="2">
-        <v>45005</v>
+      <c r="E74" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>4</v>
@@ -3495,8 +3499,8 @@
       <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2">
-        <v>45006</v>
+      <c r="E75" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>4</v>
@@ -3515,8 +3519,8 @@
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="2">
-        <v>45007</v>
+      <c r="E76" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>4</v>
@@ -3535,8 +3539,8 @@
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="2">
-        <v>45008</v>
+      <c r="E77" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>4</v>
@@ -3555,8 +3559,8 @@
       <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="2">
-        <v>45009</v>
+      <c r="E78" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>4</v>
@@ -3575,8 +3579,8 @@
       <c r="D79" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E79" s="2">
-        <v>45010</v>
+      <c r="E79" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>4</v>
@@ -3595,8 +3599,8 @@
       <c r="D80" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="2">
-        <v>45011</v>
+      <c r="E80" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>4</v>
@@ -3615,8 +3619,8 @@
       <c r="D81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E81" s="2">
-        <v>45012</v>
+      <c r="E81" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>4</v>
@@ -3635,8 +3639,8 @@
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="2">
-        <v>45013</v>
+      <c r="E82" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>4</v>
@@ -3655,8 +3659,8 @@
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="2">
-        <v>45014</v>
+      <c r="E83" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>4</v>
@@ -3675,8 +3679,8 @@
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="2">
-        <v>45015</v>
+      <c r="E84" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>4</v>
@@ -3695,8 +3699,8 @@
       <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E85" s="2">
-        <v>45016</v>
+      <c r="E85" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>4</v>
@@ -3715,8 +3719,8 @@
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E86" s="2">
-        <v>45017</v>
+      <c r="E86" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>4</v>
@@ -3735,8 +3739,8 @@
       <c r="D87" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="2">
-        <v>45018</v>
+      <c r="E87" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>4</v>
@@ -3755,8 +3759,8 @@
       <c r="D88" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E88" s="2">
-        <v>45019</v>
+      <c r="E88" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>4</v>
@@ -3775,8 +3779,8 @@
       <c r="D89" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="2">
-        <v>45020</v>
+      <c r="E89" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>4</v>
@@ -3795,8 +3799,8 @@
       <c r="D90" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E90" s="2">
-        <v>45021</v>
+      <c r="E90" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>4</v>
@@ -3815,8 +3819,8 @@
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="2">
-        <v>45022</v>
+      <c r="E91" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>4</v>
@@ -3835,8 +3839,8 @@
       <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="2">
-        <v>45023</v>
+      <c r="E92" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>4</v>
@@ -3855,8 +3859,8 @@
       <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="2">
-        <v>45024</v>
+      <c r="E93" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>4</v>
@@ -3875,8 +3879,8 @@
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="2">
-        <v>45025</v>
+      <c r="E94" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>4</v>
@@ -3895,8 +3899,8 @@
       <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E95" s="2">
-        <v>45026</v>
+      <c r="E95" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>4</v>
@@ -3915,8 +3919,8 @@
       <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="2">
-        <v>45027</v>
+      <c r="E96" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>4</v>
@@ -3935,8 +3939,8 @@
       <c r="D97" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E97" s="2">
-        <v>45028</v>
+      <c r="E97" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>4</v>
@@ -3955,8 +3959,8 @@
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="2">
-        <v>45029</v>
+      <c r="E98" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>4</v>
@@ -3975,8 +3979,8 @@
       <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="2">
-        <v>45030</v>
+      <c r="E99" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>4</v>
@@ -3995,8 +3999,8 @@
       <c r="D100" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="2">
-        <v>45031</v>
+      <c r="E100" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>4</v>
@@ -4015,8 +4019,8 @@
       <c r="D101" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="2">
-        <v>45032</v>
+      <c r="E101" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>4</v>
@@ -4035,8 +4039,8 @@
       <c r="D102" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="2">
-        <v>45033</v>
+      <c r="E102" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>4</v>
@@ -4055,8 +4059,8 @@
       <c r="D103" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E103" s="2">
-        <v>45034</v>
+      <c r="E103" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>4</v>
@@ -4075,8 +4079,8 @@
       <c r="D104" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="2">
-        <v>45035</v>
+      <c r="E104" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>4</v>
@@ -4095,8 +4099,8 @@
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="2">
-        <v>45036</v>
+      <c r="E105" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>4</v>
@@ -4115,8 +4119,8 @@
       <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="2">
-        <v>45037</v>
+      <c r="E106" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>4</v>
@@ -4135,8 +4139,8 @@
       <c r="D107" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E107" s="2">
-        <v>45038</v>
+      <c r="E107" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>4</v>
@@ -4155,8 +4159,8 @@
       <c r="D108" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="2">
-        <v>45039</v>
+      <c r="E108" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>4</v>
@@ -4175,8 +4179,8 @@
       <c r="D109" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E109" s="2">
-        <v>45040</v>
+      <c r="E109" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>4</v>
@@ -4195,8 +4199,8 @@
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E110" s="2">
-        <v>45041</v>
+      <c r="E110" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>4</v>
@@ -4215,8 +4219,8 @@
       <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E111" s="2">
-        <v>45042</v>
+      <c r="E111" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>4</v>
@@ -4235,8 +4239,8 @@
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="2">
-        <v>45043</v>
+      <c r="E112" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>4</v>
@@ -4255,8 +4259,8 @@
       <c r="D113" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E113" s="2">
-        <v>45044</v>
+      <c r="E113" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>4</v>
@@ -4275,8 +4279,8 @@
       <c r="D114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="2">
-        <v>45045</v>
+      <c r="E114" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>4</v>
@@ -4295,8 +4299,8 @@
       <c r="D115" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E115" s="2">
-        <v>45046</v>
+      <c r="E115" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>4</v>
@@ -4315,8 +4319,8 @@
       <c r="D116" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E116" s="2">
-        <v>45047</v>
+      <c r="E116" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>4</v>
@@ -4335,8 +4339,8 @@
       <c r="D117" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E117" s="2">
-        <v>45048</v>
+      <c r="E117" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>4</v>
@@ -4355,8 +4359,8 @@
       <c r="D118" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E118" s="2">
-        <v>45049</v>
+      <c r="E118" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>4</v>
@@ -4375,8 +4379,8 @@
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="2">
-        <v>45050</v>
+      <c r="E119" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>4</v>
@@ -4395,8 +4399,8 @@
       <c r="D120" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="2">
-        <v>45051</v>
+      <c r="E120" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>4</v>
@@ -4415,8 +4419,8 @@
       <c r="D121" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="2">
-        <v>45052</v>
+      <c r="E121" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>4</v>
@@ -4435,8 +4439,8 @@
       <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="2">
-        <v>45053</v>
+      <c r="E122" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>4</v>
@@ -4455,8 +4459,8 @@
       <c r="D123" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E123" s="2">
-        <v>45054</v>
+      <c r="E123" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>4</v>
@@ -4475,8 +4479,8 @@
       <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E124" s="2">
-        <v>45055</v>
+      <c r="E124" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>4</v>
@@ -4495,8 +4499,8 @@
       <c r="D125" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E125" s="2">
-        <v>45056</v>
+      <c r="E125" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>4</v>
@@ -4515,8 +4519,8 @@
       <c r="D126" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="2">
-        <v>45057</v>
+      <c r="E126" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>4</v>
@@ -4535,8 +4539,8 @@
       <c r="D127" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E127" s="2">
-        <v>45058</v>
+      <c r="E127" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>4</v>
@@ -4555,8 +4559,8 @@
       <c r="D128" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="2">
-        <v>45059</v>
+      <c r="E128" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>4</v>
@@ -4575,8 +4579,8 @@
       <c r="D129" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="2">
-        <v>45060</v>
+      <c r="E129" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>4</v>
@@ -4595,8 +4599,8 @@
       <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="2">
-        <v>45061</v>
+      <c r="E130" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>4</v>
@@ -4615,8 +4619,8 @@
       <c r="D131" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E131" s="2">
-        <v>45062</v>
+      <c r="E131" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>4</v>
@@ -4635,8 +4639,8 @@
       <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E132" s="2">
-        <v>45063</v>
+      <c r="E132" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>4</v>
@@ -4655,8 +4659,8 @@
       <c r="D133" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="2">
-        <v>45064</v>
+      <c r="E133" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>4</v>
@@ -4675,8 +4679,8 @@
       <c r="D134" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E134" s="2">
-        <v>45065</v>
+      <c r="E134" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>4</v>
@@ -4695,8 +4699,8 @@
       <c r="D135" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="2">
-        <v>45066</v>
+      <c r="E135" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>4</v>
@@ -4715,8 +4719,8 @@
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E136" s="2">
-        <v>45067</v>
+      <c r="E136" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>4</v>
@@ -4735,8 +4739,8 @@
       <c r="D137" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E137" s="2">
-        <v>45068</v>
+      <c r="E137" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>4</v>
@@ -4755,8 +4759,8 @@
       <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E138" s="2">
-        <v>45069</v>
+      <c r="E138" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>4</v>
@@ -4775,8 +4779,8 @@
       <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="2">
-        <v>45070</v>
+      <c r="E139" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>4</v>
@@ -4795,8 +4799,8 @@
       <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E140" s="2">
-        <v>45071</v>
+      <c r="E140" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>4</v>
@@ -4815,8 +4819,8 @@
       <c r="D141" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="2">
-        <v>45072</v>
+      <c r="E141" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>4</v>
@@ -4835,8 +4839,8 @@
       <c r="D142" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E142" s="2">
-        <v>45073</v>
+      <c r="E142" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>4</v>
@@ -4855,8 +4859,8 @@
       <c r="D143" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E143" s="2">
-        <v>45074</v>
+      <c r="E143" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>4</v>
@@ -4875,8 +4879,8 @@
       <c r="D144" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="2">
-        <v>45075</v>
+      <c r="E144" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>4</v>
@@ -4895,8 +4899,8 @@
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="2">
-        <v>45076</v>
+      <c r="E145" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>4</v>
@@ -4915,8 +4919,8 @@
       <c r="D146" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E146" s="2">
-        <v>45077</v>
+      <c r="E146" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>4</v>
@@ -4935,8 +4939,8 @@
       <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E147" s="2">
-        <v>45078</v>
+      <c r="E147" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>4</v>
@@ -4955,8 +4959,8 @@
       <c r="D148" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="2">
-        <v>45079</v>
+      <c r="E148" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>4</v>
@@ -4975,8 +4979,8 @@
       <c r="D149" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E149" s="2">
-        <v>45080</v>
+      <c r="E149" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>4</v>
@@ -4995,8 +4999,8 @@
       <c r="D150" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E150" s="2">
-        <v>45081</v>
+      <c r="E150" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>4</v>
@@ -5015,8 +5019,8 @@
       <c r="D151" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E151" s="2">
-        <v>45082</v>
+      <c r="E151" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>4</v>
@@ -5035,8 +5039,8 @@
       <c r="D152" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E152" s="2">
-        <v>45083</v>
+      <c r="E152" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>4</v>
@@ -5055,8 +5059,8 @@
       <c r="D153" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E153" s="2">
-        <v>45084</v>
+      <c r="E153" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>4</v>
@@ -5075,8 +5079,8 @@
       <c r="D154" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E154" s="2">
-        <v>45085</v>
+      <c r="E154" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>4</v>
@@ -5095,8 +5099,8 @@
       <c r="D155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E155" s="2">
-        <v>45086</v>
+      <c r="E155" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>4</v>
@@ -5115,8 +5119,8 @@
       <c r="D156" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E156" s="2">
-        <v>45087</v>
+      <c r="E156" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>4</v>
@@ -5135,8 +5139,8 @@
       <c r="D157" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E157" s="2">
-        <v>45088</v>
+      <c r="E157" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>4</v>
@@ -5155,8 +5159,8 @@
       <c r="D158" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E158" s="2">
-        <v>45089</v>
+      <c r="E158" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>4</v>
@@ -5175,8 +5179,8 @@
       <c r="D159" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E159" s="2">
-        <v>45090</v>
+      <c r="E159" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>4</v>
@@ -5195,8 +5199,8 @@
       <c r="D160" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="2">
-        <v>45091</v>
+      <c r="E160" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>4</v>
@@ -5215,8 +5219,8 @@
       <c r="D161" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E161" s="2">
-        <v>45092</v>
+      <c r="E161" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>4</v>
@@ -5235,8 +5239,8 @@
       <c r="D162" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="2">
-        <v>45093</v>
+      <c r="E162" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>4</v>
@@ -5255,8 +5259,8 @@
       <c r="D163" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="2">
-        <v>45094</v>
+      <c r="E163" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>4</v>
@@ -5275,8 +5279,8 @@
       <c r="D164" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E164" s="2">
-        <v>45095</v>
+      <c r="E164" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>4</v>
@@ -5295,8 +5299,8 @@
       <c r="D165" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E165" s="2">
-        <v>45096</v>
+      <c r="E165" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>4</v>
@@ -5315,8 +5319,8 @@
       <c r="D166" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="2">
-        <v>45097</v>
+      <c r="E166" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>4</v>
@@ -5335,8 +5339,8 @@
       <c r="D167" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E167" s="2">
-        <v>45098</v>
+      <c r="E167" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>4</v>
@@ -5355,8 +5359,8 @@
       <c r="D168" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E168" s="2">
-        <v>45099</v>
+      <c r="E168" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F168" s="1" t="s">
         <v>4</v>
@@ -5375,8 +5379,8 @@
       <c r="D169" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E169" s="2">
-        <v>45100</v>
+      <c r="E169" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>4</v>
@@ -5395,8 +5399,8 @@
       <c r="D170" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E170" s="2">
-        <v>45101</v>
+      <c r="E170" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>4</v>
@@ -5415,8 +5419,8 @@
       <c r="D171" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E171" s="2">
-        <v>45102</v>
+      <c r="E171" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>4</v>
@@ -5435,8 +5439,8 @@
       <c r="D172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E172" s="2">
-        <v>45103</v>
+      <c r="E172" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>4</v>
@@ -5455,8 +5459,8 @@
       <c r="D173" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E173" s="2">
-        <v>45104</v>
+      <c r="E173" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>4</v>
@@ -5475,8 +5479,8 @@
       <c r="D174" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="2">
-        <v>45105</v>
+      <c r="E174" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>4</v>
@@ -5495,8 +5499,8 @@
       <c r="D175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E175" s="2">
-        <v>45106</v>
+      <c r="E175" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F175" s="1" t="s">
         <v>4</v>
@@ -5515,8 +5519,8 @@
       <c r="D176" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E176" s="2">
-        <v>45107</v>
+      <c r="E176" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>4</v>
@@ -5535,8 +5539,8 @@
       <c r="D177" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="2">
-        <v>45108</v>
+      <c r="E177" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F177" s="1" t="s">
         <v>4</v>
@@ -5555,8 +5559,8 @@
       <c r="D178" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E178" s="2">
-        <v>45109</v>
+      <c r="E178" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F178" s="1" t="s">
         <v>4</v>
@@ -5575,8 +5579,8 @@
       <c r="D179" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="2">
-        <v>45110</v>
+      <c r="E179" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>4</v>
@@ -5595,8 +5599,8 @@
       <c r="D180" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E180" s="2">
-        <v>45111</v>
+      <c r="E180" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F180" s="1" t="s">
         <v>4</v>
@@ -5615,8 +5619,8 @@
       <c r="D181" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E181" s="2">
-        <v>45112</v>
+      <c r="E181" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F181" s="1" t="s">
         <v>4</v>
@@ -5635,8 +5639,8 @@
       <c r="D182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E182" s="2">
-        <v>45113</v>
+      <c r="E182" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F182" s="1" t="s">
         <v>4</v>
@@ -5655,8 +5659,8 @@
       <c r="D183" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E183" s="2">
-        <v>45114</v>
+      <c r="E183" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F183" s="1" t="s">
         <v>4</v>
@@ -5675,8 +5679,8 @@
       <c r="D184" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E184" s="2">
-        <v>45115</v>
+      <c r="E184" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F184" s="1" t="s">
         <v>4</v>
@@ -5695,8 +5699,8 @@
       <c r="D185" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="2">
-        <v>45116</v>
+      <c r="E185" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>4</v>
@@ -5715,8 +5719,8 @@
       <c r="D186" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E186" s="2">
-        <v>45117</v>
+      <c r="E186" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>4</v>
@@ -5735,8 +5739,8 @@
       <c r="D187" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E187" s="2">
-        <v>45118</v>
+      <c r="E187" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>4</v>
@@ -5755,8 +5759,8 @@
       <c r="D188" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E188" s="2">
-        <v>45119</v>
+      <c r="E188" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>4</v>
@@ -5775,8 +5779,8 @@
       <c r="D189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E189" s="2">
-        <v>45120</v>
+      <c r="E189" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>4</v>
@@ -5795,8 +5799,8 @@
       <c r="D190" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E190" s="2">
-        <v>45121</v>
+      <c r="E190" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>4</v>
@@ -5815,8 +5819,8 @@
       <c r="D191" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E191" s="2">
-        <v>45122</v>
+      <c r="E191" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>4</v>
@@ -5835,8 +5839,8 @@
       <c r="D192" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E192" s="2">
-        <v>45123</v>
+      <c r="E192" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>4</v>
@@ -5855,8 +5859,8 @@
       <c r="D193" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E193" s="2">
-        <v>45124</v>
+      <c r="E193" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>4</v>
@@ -5875,8 +5879,8 @@
       <c r="D194" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E194" s="2">
-        <v>45125</v>
+      <c r="E194" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>4</v>
@@ -5895,8 +5899,8 @@
       <c r="D195" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E195" s="2">
-        <v>45126</v>
+      <c r="E195" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F195" s="1" t="s">
         <v>4</v>
@@ -5915,8 +5919,8 @@
       <c r="D196" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E196" s="2">
-        <v>45127</v>
+      <c r="E196" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>4</v>
@@ -5935,8 +5939,8 @@
       <c r="D197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E197" s="2">
-        <v>45128</v>
+      <c r="E197" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F197" s="1" t="s">
         <v>4</v>
@@ -5955,8 +5959,8 @@
       <c r="D198" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E198" s="2">
-        <v>45129</v>
+      <c r="E198" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F198" s="1" t="s">
         <v>4</v>
@@ -5975,8 +5979,8 @@
       <c r="D199" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E199" s="2">
-        <v>45130</v>
+      <c r="E199" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>4</v>
@@ -5995,8 +5999,8 @@
       <c r="D200" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E200" s="2">
-        <v>45131</v>
+      <c r="E200" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>4</v>
@@ -6015,8 +6019,8 @@
       <c r="D201" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E201" s="2">
-        <v>45132</v>
+      <c r="E201" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>4</v>
@@ -6035,8 +6039,8 @@
       <c r="D202" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E202" s="2">
-        <v>45133</v>
+      <c r="E202" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>4</v>
@@ -6055,8 +6059,8 @@
       <c r="D203" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E203" s="2">
-        <v>45134</v>
+      <c r="E203" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>4</v>
@@ -6075,8 +6079,8 @@
       <c r="D204" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E204" s="2">
-        <v>45135</v>
+      <c r="E204" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>4</v>
@@ -6095,8 +6099,8 @@
       <c r="D205" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E205" s="2">
-        <v>45136</v>
+      <c r="E205" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>4</v>
@@ -6115,8 +6119,8 @@
       <c r="D206" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E206" s="2">
-        <v>45137</v>
+      <c r="E206" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>4</v>
@@ -6135,8 +6139,8 @@
       <c r="D207" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E207" s="2">
-        <v>45138</v>
+      <c r="E207" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>4</v>
@@ -6155,8 +6159,8 @@
       <c r="D208" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E208" s="2">
-        <v>45139</v>
+      <c r="E208" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>4</v>
@@ -6175,8 +6179,8 @@
       <c r="D209" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E209" s="2">
-        <v>45140</v>
+      <c r="E209" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>4</v>
@@ -6195,8 +6199,8 @@
       <c r="D210" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E210" s="2">
-        <v>45141</v>
+      <c r="E210" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>4</v>
@@ -6215,8 +6219,8 @@
       <c r="D211" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E211" s="2">
-        <v>45142</v>
+      <c r="E211" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>4</v>
@@ -6235,8 +6239,8 @@
       <c r="D212" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E212" s="2">
-        <v>45143</v>
+      <c r="E212" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>4</v>
@@ -6255,8 +6259,8 @@
       <c r="D213" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E213" s="2">
-        <v>45144</v>
+      <c r="E213" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>4</v>
@@ -6275,8 +6279,8 @@
       <c r="D214" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E214" s="2">
-        <v>45145</v>
+      <c r="E214" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>4</v>
@@ -6295,8 +6299,8 @@
       <c r="D215" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E215" s="2">
-        <v>45146</v>
+      <c r="E215" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>4</v>
@@ -6315,8 +6319,8 @@
       <c r="D216" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E216" s="2">
-        <v>45147</v>
+      <c r="E216" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>4</v>
@@ -6335,8 +6339,8 @@
       <c r="D217" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E217" s="2">
-        <v>45148</v>
+      <c r="E217" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>4</v>
@@ -6355,8 +6359,8 @@
       <c r="D218" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E218" s="2">
-        <v>45149</v>
+      <c r="E218" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>4</v>
@@ -6375,8 +6379,8 @@
       <c r="D219" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E219" s="2">
-        <v>45150</v>
+      <c r="E219" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>4</v>
@@ -6395,8 +6399,8 @@
       <c r="D220" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E220" s="2">
-        <v>45151</v>
+      <c r="E220" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>4</v>
@@ -6415,8 +6419,8 @@
       <c r="D221" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E221" s="2">
-        <v>45152</v>
+      <c r="E221" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>4</v>
@@ -6435,8 +6439,8 @@
       <c r="D222" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="2">
-        <v>45153</v>
+      <c r="E222" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>4</v>
@@ -6455,8 +6459,8 @@
       <c r="D223" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E223" s="2">
-        <v>45154</v>
+      <c r="E223" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>4</v>
@@ -6475,8 +6479,8 @@
       <c r="D224" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E224" s="2">
-        <v>45155</v>
+      <c r="E224" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F224" s="1" t="s">
         <v>4</v>
@@ -6495,8 +6499,8 @@
       <c r="D225" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E225" s="2">
-        <v>45156</v>
+      <c r="E225" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>4</v>
@@ -6515,8 +6519,8 @@
       <c r="D226" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E226" s="2">
-        <v>45157</v>
+      <c r="E226" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>4</v>
@@ -6535,8 +6539,8 @@
       <c r="D227" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E227" s="2">
-        <v>45158</v>
+      <c r="E227" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F227" s="1" t="s">
         <v>4</v>
@@ -6555,8 +6559,8 @@
       <c r="D228" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E228" s="2">
-        <v>45159</v>
+      <c r="E228" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>4</v>
@@ -6575,8 +6579,8 @@
       <c r="D229" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E229" s="2">
-        <v>45160</v>
+      <c r="E229" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>4</v>
@@ -6595,8 +6599,8 @@
       <c r="D230" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E230" s="2">
-        <v>45161</v>
+      <c r="E230" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>4</v>
@@ -6615,8 +6619,8 @@
       <c r="D231" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E231" s="2">
-        <v>45162</v>
+      <c r="E231" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>4</v>
@@ -6635,8 +6639,8 @@
       <c r="D232" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E232" s="2">
-        <v>45163</v>
+      <c r="E232" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>4</v>
@@ -6655,8 +6659,8 @@
       <c r="D233" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E233" s="2">
-        <v>45164</v>
+      <c r="E233" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>4</v>
@@ -6675,8 +6679,8 @@
       <c r="D234" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E234" s="2">
-        <v>45165</v>
+      <c r="E234" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>4</v>
@@ -6695,8 +6699,8 @@
       <c r="D235" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E235" s="2">
-        <v>45166</v>
+      <c r="E235" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>4</v>
@@ -6715,8 +6719,8 @@
       <c r="D236" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E236" s="2">
-        <v>45167</v>
+      <c r="E236" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>4</v>
@@ -6735,8 +6739,8 @@
       <c r="D237" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E237" s="2">
-        <v>45168</v>
+      <c r="E237" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F237" s="1" t="s">
         <v>4</v>
@@ -6755,8 +6759,8 @@
       <c r="D238" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E238" s="2">
-        <v>45169</v>
+      <c r="E238" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F238" s="1" t="s">
         <v>4</v>
@@ -6775,8 +6779,8 @@
       <c r="D239" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E239" s="2">
-        <v>45170</v>
+      <c r="E239" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>4</v>
@@ -6795,8 +6799,8 @@
       <c r="D240" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E240" s="2">
-        <v>45171</v>
+      <c r="E240" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>4</v>
@@ -6815,8 +6819,8 @@
       <c r="D241" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E241" s="2">
-        <v>45172</v>
+      <c r="E241" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F241" s="1" t="s">
         <v>4</v>
@@ -6835,8 +6839,8 @@
       <c r="D242" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E242" s="2">
-        <v>45173</v>
+      <c r="E242" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F242" s="1" t="s">
         <v>4</v>
@@ -6855,8 +6859,8 @@
       <c r="D243" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E243" s="2">
-        <v>45174</v>
+      <c r="E243" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F243" s="1" t="s">
         <v>4</v>
@@ -6875,8 +6879,8 @@
       <c r="D244" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E244" s="2">
-        <v>45175</v>
+      <c r="E244" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F244" s="1" t="s">
         <v>4</v>
@@ -6895,8 +6899,8 @@
       <c r="D245" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E245" s="2">
-        <v>45176</v>
+      <c r="E245" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F245" s="1" t="s">
         <v>4</v>
@@ -6915,8 +6919,8 @@
       <c r="D246" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E246" s="2">
-        <v>45177</v>
+      <c r="E246" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F246" s="1" t="s">
         <v>4</v>
@@ -6935,8 +6939,8 @@
       <c r="D247" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E247" s="2">
-        <v>45178</v>
+      <c r="E247" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F247" s="1" t="s">
         <v>4</v>
@@ -6955,8 +6959,8 @@
       <c r="D248" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E248" s="2">
-        <v>45179</v>
+      <c r="E248" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F248" s="1" t="s">
         <v>4</v>
@@ -6975,8 +6979,8 @@
       <c r="D249" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E249" s="2">
-        <v>45180</v>
+      <c r="E249" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F249" s="1" t="s">
         <v>4</v>
@@ -6995,8 +6999,8 @@
       <c r="D250" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E250" s="2">
-        <v>45181</v>
+      <c r="E250" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F250" s="1" t="s">
         <v>4</v>
@@ -7015,8 +7019,8 @@
       <c r="D251" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E251" s="2">
-        <v>45182</v>
+      <c r="E251" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F251" s="1" t="s">
         <v>4</v>
@@ -7035,8 +7039,8 @@
       <c r="D252" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E252" s="2">
-        <v>45183</v>
+      <c r="E252" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F252" s="1" t="s">
         <v>4</v>
@@ -7055,8 +7059,8 @@
       <c r="D253" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E253" s="2">
-        <v>45184</v>
+      <c r="E253" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F253" s="1" t="s">
         <v>4</v>
@@ -7075,8 +7079,8 @@
       <c r="D254" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E254" s="2">
-        <v>45185</v>
+      <c r="E254" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F254" s="1" t="s">
         <v>4</v>
@@ -7095,8 +7099,8 @@
       <c r="D255" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E255" s="2">
-        <v>45186</v>
+      <c r="E255" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F255" s="1" t="s">
         <v>4</v>
@@ -7115,8 +7119,8 @@
       <c r="D256" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E256" s="2">
-        <v>45187</v>
+      <c r="E256" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F256" s="1" t="s">
         <v>4</v>
@@ -7135,8 +7139,8 @@
       <c r="D257" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E257" s="2">
-        <v>45188</v>
+      <c r="E257" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F257" s="1" t="s">
         <v>4</v>
@@ -7155,8 +7159,8 @@
       <c r="D258" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E258" s="2">
-        <v>45189</v>
+      <c r="E258" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>4</v>
@@ -7175,8 +7179,8 @@
       <c r="D259" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E259" s="2">
-        <v>45190</v>
+      <c r="E259" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>4</v>
@@ -7195,8 +7199,8 @@
       <c r="D260" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E260" s="2">
-        <v>45191</v>
+      <c r="E260" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F260" s="1" t="s">
         <v>4</v>
@@ -7215,8 +7219,8 @@
       <c r="D261" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E261" s="2">
-        <v>45192</v>
+      <c r="E261" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>4</v>
@@ -7235,8 +7239,8 @@
       <c r="D262" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E262" s="2">
-        <v>45193</v>
+      <c r="E262" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>4</v>
@@ -7255,8 +7259,8 @@
       <c r="D263" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E263" s="2">
-        <v>45194</v>
+      <c r="E263" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F263" s="1" t="s">
         <v>4</v>
@@ -7275,8 +7279,8 @@
       <c r="D264" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E264" s="2">
-        <v>45195</v>
+      <c r="E264" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F264" s="1" t="s">
         <v>4</v>
@@ -7295,8 +7299,8 @@
       <c r="D265" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E265" s="2">
-        <v>45196</v>
+      <c r="E265" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>4</v>
@@ -7315,8 +7319,8 @@
       <c r="D266" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E266" s="2">
-        <v>45197</v>
+      <c r="E266" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F266" s="1" t="s">
         <v>4</v>
@@ -7335,8 +7339,8 @@
       <c r="D267" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E267" s="2">
-        <v>45198</v>
+      <c r="E267" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F267" s="1" t="s">
         <v>4</v>
@@ -7355,8 +7359,8 @@
       <c r="D268" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E268" s="2">
-        <v>45199</v>
+      <c r="E268" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F268" s="1" t="s">
         <v>4</v>
@@ -7375,8 +7379,8 @@
       <c r="D269" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E269" s="2">
-        <v>45200</v>
+      <c r="E269" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F269" s="1" t="s">
         <v>4</v>
@@ -7395,8 +7399,8 @@
       <c r="D270" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E270" s="2">
-        <v>45201</v>
+      <c r="E270" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F270" s="1" t="s">
         <v>4</v>
@@ -7415,8 +7419,8 @@
       <c r="D271" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E271" s="2">
-        <v>45202</v>
+      <c r="E271" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F271" s="1" t="s">
         <v>4</v>
@@ -7435,8 +7439,8 @@
       <c r="D272" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E272" s="2">
-        <v>45203</v>
+      <c r="E272" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>4</v>
@@ -7455,8 +7459,8 @@
       <c r="D273" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E273" s="2">
-        <v>45204</v>
+      <c r="E273" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>4</v>
@@ -7475,8 +7479,8 @@
       <c r="D274" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E274" s="2">
-        <v>45205</v>
+      <c r="E274" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>4</v>
@@ -7495,8 +7499,8 @@
       <c r="D275" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E275" s="2">
-        <v>45206</v>
+      <c r="E275" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>4</v>
@@ -7515,8 +7519,8 @@
       <c r="D276" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E276" s="2">
-        <v>45207</v>
+      <c r="E276" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>4</v>
@@ -7535,8 +7539,8 @@
       <c r="D277" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E277" s="2">
-        <v>45208</v>
+      <c r="E277" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>4</v>
@@ -7555,8 +7559,8 @@
       <c r="D278" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E278" s="2">
-        <v>45209</v>
+      <c r="E278" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>4</v>
@@ -7575,8 +7579,8 @@
       <c r="D279" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E279" s="2">
-        <v>45210</v>
+      <c r="E279" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F279" s="1" t="s">
         <v>4</v>
@@ -7595,8 +7599,8 @@
       <c r="D280" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E280" s="2">
-        <v>45211</v>
+      <c r="E280" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F280" s="1" t="s">
         <v>4</v>
@@ -7615,8 +7619,8 @@
       <c r="D281" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E281" s="2">
-        <v>45212</v>
+      <c r="E281" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F281" s="1" t="s">
         <v>4</v>
@@ -7635,8 +7639,8 @@
       <c r="D282" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E282" s="2">
-        <v>45213</v>
+      <c r="E282" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F282" s="1" t="s">
         <v>4</v>
@@ -7655,8 +7659,8 @@
       <c r="D283" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E283" s="2">
-        <v>45214</v>
+      <c r="E283" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F283" s="1" t="s">
         <v>4</v>
@@ -7675,8 +7679,8 @@
       <c r="D284" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E284" s="2">
-        <v>45215</v>
+      <c r="E284" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F284" s="1" t="s">
         <v>4</v>
@@ -7695,8 +7699,8 @@
       <c r="D285" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E285" s="2">
-        <v>45216</v>
+      <c r="E285" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F285" s="1" t="s">
         <v>4</v>
@@ -7715,8 +7719,8 @@
       <c r="D286" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E286" s="2">
-        <v>45217</v>
+      <c r="E286" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F286" s="1" t="s">
         <v>4</v>
@@ -7735,8 +7739,8 @@
       <c r="D287" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E287" s="2">
-        <v>45218</v>
+      <c r="E287" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F287" s="1" t="s">
         <v>4</v>
@@ -7755,8 +7759,8 @@
       <c r="D288" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E288" s="2">
-        <v>45219</v>
+      <c r="E288" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>4</v>
@@ -7775,8 +7779,8 @@
       <c r="D289" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E289" s="2">
-        <v>45220</v>
+      <c r="E289" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>4</v>
@@ -7795,8 +7799,8 @@
       <c r="D290" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E290" s="2">
-        <v>45221</v>
+      <c r="E290" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>4</v>
@@ -7815,8 +7819,8 @@
       <c r="D291" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E291" s="2">
-        <v>45222</v>
+      <c r="E291" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>4</v>
@@ -7835,8 +7839,8 @@
       <c r="D292" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E292" s="2">
-        <v>45223</v>
+      <c r="E292" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>4</v>
@@ -7855,8 +7859,8 @@
       <c r="D293" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E293" s="2">
-        <v>45224</v>
+      <c r="E293" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>4</v>
@@ -7875,8 +7879,8 @@
       <c r="D294" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E294" s="2">
-        <v>45225</v>
+      <c r="E294" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>4</v>
@@ -7895,8 +7899,8 @@
       <c r="D295" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E295" s="2">
-        <v>45226</v>
+      <c r="E295" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F295" s="1" t="s">
         <v>4</v>
@@ -7915,8 +7919,8 @@
       <c r="D296" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E296" s="2">
-        <v>45227</v>
+      <c r="E296" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F296" s="1" t="s">
         <v>4</v>
@@ -7935,8 +7939,8 @@
       <c r="D297" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E297" s="2">
-        <v>45228</v>
+      <c r="E297" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F297" s="1" t="s">
         <v>4</v>
@@ -7955,8 +7959,8 @@
       <c r="D298" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E298" s="2">
-        <v>45229</v>
+      <c r="E298" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F298" s="1" t="s">
         <v>4</v>
@@ -7975,8 +7979,8 @@
       <c r="D299" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E299" s="2">
-        <v>45230</v>
+      <c r="E299" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F299" s="1" t="s">
         <v>4</v>
@@ -7995,8 +7999,8 @@
       <c r="D300" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E300" s="2">
-        <v>45231</v>
+      <c r="E300" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F300" s="1" t="s">
         <v>4</v>
@@ -8015,8 +8019,8 @@
       <c r="D301" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E301" s="2">
-        <v>45232</v>
+      <c r="E301" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F301" s="1" t="s">
         <v>4</v>
@@ -8035,8 +8039,8 @@
       <c r="D302" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E302" s="2">
-        <v>45233</v>
+      <c r="E302" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F302" s="1" t="s">
         <v>4</v>
@@ -8055,8 +8059,8 @@
       <c r="D303" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E303" s="2">
-        <v>45234</v>
+      <c r="E303" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F303" s="1" t="s">
         <v>4</v>
@@ -8075,8 +8079,8 @@
       <c r="D304" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E304" s="2">
-        <v>45235</v>
+      <c r="E304" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>4</v>
@@ -8095,8 +8099,8 @@
       <c r="D305" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E305" s="2">
-        <v>45236</v>
+      <c r="E305" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>4</v>
@@ -8115,8 +8119,8 @@
       <c r="D306" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E306" s="2">
-        <v>45237</v>
+      <c r="E306" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>4</v>
@@ -8135,8 +8139,8 @@
       <c r="D307" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E307" s="2">
-        <v>45238</v>
+      <c r="E307" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>4</v>
@@ -8155,8 +8159,8 @@
       <c r="D308" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E308" s="2">
-        <v>45239</v>
+      <c r="E308" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>4</v>
@@ -8175,8 +8179,8 @@
       <c r="D309" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E309" s="2">
-        <v>45240</v>
+      <c r="E309" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>4</v>
@@ -8195,8 +8199,8 @@
       <c r="D310" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E310" s="2">
-        <v>45241</v>
+      <c r="E310" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>4</v>
@@ -8215,8 +8219,8 @@
       <c r="D311" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E311" s="2">
-        <v>45242</v>
+      <c r="E311" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F311" s="1" t="s">
         <v>4</v>
@@ -8235,8 +8239,8 @@
       <c r="D312" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E312" s="2">
-        <v>45243</v>
+      <c r="E312" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F312" s="1" t="s">
         <v>4</v>
@@ -8255,8 +8259,8 @@
       <c r="D313" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E313" s="2">
-        <v>45244</v>
+      <c r="E313" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F313" s="1" t="s">
         <v>4</v>
@@ -8275,8 +8279,8 @@
       <c r="D314" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E314" s="2">
-        <v>45245</v>
+      <c r="E314" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F314" s="1" t="s">
         <v>4</v>
@@ -8295,8 +8299,8 @@
       <c r="D315" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E315" s="2">
-        <v>45246</v>
+      <c r="E315" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F315" s="1" t="s">
         <v>4</v>
@@ -8315,8 +8319,8 @@
       <c r="D316" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E316" s="2">
-        <v>45247</v>
+      <c r="E316" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F316" s="1" t="s">
         <v>4</v>
@@ -8335,8 +8339,8 @@
       <c r="D317" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E317" s="2">
-        <v>45248</v>
+      <c r="E317" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>4</v>
@@ -8355,8 +8359,8 @@
       <c r="D318" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E318" s="2">
-        <v>45249</v>
+      <c r="E318" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F318" s="1" t="s">
         <v>4</v>
@@ -8375,8 +8379,8 @@
       <c r="D319" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E319" s="2">
-        <v>45250</v>
+      <c r="E319" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F319" s="1" t="s">
         <v>4</v>
@@ -8395,8 +8399,8 @@
       <c r="D320" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E320" s="2">
-        <v>45251</v>
+      <c r="E320" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>4</v>
@@ -8415,8 +8419,8 @@
       <c r="D321" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E321" s="2">
-        <v>45252</v>
+      <c r="E321" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>4</v>
@@ -8435,8 +8439,8 @@
       <c r="D322" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E322" s="2">
-        <v>45253</v>
+      <c r="E322" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>4</v>
@@ -8455,8 +8459,8 @@
       <c r="D323" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E323" s="2">
-        <v>45254</v>
+      <c r="E323" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>4</v>
@@ -8475,8 +8479,8 @@
       <c r="D324" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E324" s="2">
-        <v>45255</v>
+      <c r="E324" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>4</v>
@@ -8495,8 +8499,8 @@
       <c r="D325" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E325" s="2">
-        <v>45256</v>
+      <c r="E325" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>4</v>
@@ -8515,8 +8519,8 @@
       <c r="D326" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E326" s="2">
-        <v>45257</v>
+      <c r="E326" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>4</v>
@@ -8535,8 +8539,8 @@
       <c r="D327" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E327" s="2">
-        <v>45258</v>
+      <c r="E327" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F327" s="1" t="s">
         <v>4</v>
@@ -8555,8 +8559,8 @@
       <c r="D328" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E328" s="2">
-        <v>45259</v>
+      <c r="E328" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F328" s="1" t="s">
         <v>4</v>
@@ -8575,8 +8579,8 @@
       <c r="D329" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E329" s="2">
-        <v>45260</v>
+      <c r="E329" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F329" s="1" t="s">
         <v>4</v>
@@ -8595,8 +8599,8 @@
       <c r="D330" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E330" s="2">
-        <v>45261</v>
+      <c r="E330" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F330" s="1" t="s">
         <v>4</v>
@@ -8615,8 +8619,8 @@
       <c r="D331" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E331" s="2">
-        <v>45262</v>
+      <c r="E331" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F331" s="1" t="s">
         <v>4</v>
@@ -8635,8 +8639,8 @@
       <c r="D332" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E332" s="2">
-        <v>45263</v>
+      <c r="E332" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F332" s="1" t="s">
         <v>4</v>
@@ -8655,8 +8659,8 @@
       <c r="D333" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E333" s="2">
-        <v>45264</v>
+      <c r="E333" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F333" s="1" t="s">
         <v>4</v>
@@ -8675,8 +8679,8 @@
       <c r="D334" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E334" s="2">
-        <v>45265</v>
+      <c r="E334" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F334" s="1" t="s">
         <v>4</v>
@@ -8695,8 +8699,8 @@
       <c r="D335" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E335" s="2">
-        <v>45266</v>
+      <c r="E335" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>4</v>
@@ -8715,8 +8719,8 @@
       <c r="D336" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E336" s="2">
-        <v>45267</v>
+      <c r="E336" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>4</v>
@@ -8735,8 +8739,8 @@
       <c r="D337" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E337" s="2">
-        <v>45268</v>
+      <c r="E337" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>4</v>
@@ -8755,8 +8759,8 @@
       <c r="D338" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E338" s="2">
-        <v>45269</v>
+      <c r="E338" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>4</v>
@@ -8775,8 +8779,8 @@
       <c r="D339" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E339" s="2">
-        <v>45270</v>
+      <c r="E339" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>4</v>
@@ -8795,8 +8799,8 @@
       <c r="D340" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E340" s="2">
-        <v>45271</v>
+      <c r="E340" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>4</v>
@@ -8815,8 +8819,8 @@
       <c r="D341" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E341" s="2">
-        <v>45272</v>
+      <c r="E341" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>4</v>
@@ -8835,8 +8839,8 @@
       <c r="D342" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E342" s="2">
-        <v>45273</v>
+      <c r="E342" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>4</v>
@@ -8855,8 +8859,8 @@
       <c r="D343" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E343" s="2">
-        <v>45274</v>
+      <c r="E343" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F343" s="1" t="s">
         <v>4</v>
@@ -8875,8 +8879,8 @@
       <c r="D344" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E344" s="2">
-        <v>45275</v>
+      <c r="E344" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F344" s="1" t="s">
         <v>4</v>
@@ -8895,8 +8899,8 @@
       <c r="D345" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E345" s="2">
-        <v>45276</v>
+      <c r="E345" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F345" s="1" t="s">
         <v>4</v>
@@ -8915,8 +8919,8 @@
       <c r="D346" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E346" s="2">
-        <v>45277</v>
+      <c r="E346" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F346" s="1" t="s">
         <v>4</v>
@@ -8935,8 +8939,8 @@
       <c r="D347" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E347" s="2">
-        <v>45278</v>
+      <c r="E347" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F347" s="1" t="s">
         <v>4</v>
@@ -8955,8 +8959,8 @@
       <c r="D348" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E348" s="2">
-        <v>45279</v>
+      <c r="E348" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F348" s="1" t="s">
         <v>4</v>
@@ -8975,8 +8979,8 @@
       <c r="D349" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E349" s="2">
-        <v>45280</v>
+      <c r="E349" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F349" s="1" t="s">
         <v>4</v>
@@ -8995,8 +8999,8 @@
       <c r="D350" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E350" s="2">
-        <v>45281</v>
+      <c r="E350" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F350" s="1" t="s">
         <v>4</v>
@@ -9015,8 +9019,8 @@
       <c r="D351" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E351" s="2">
-        <v>45282</v>
+      <c r="E351" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F351" s="1" t="s">
         <v>4</v>
@@ -9035,8 +9039,8 @@
       <c r="D352" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E352" s="2">
-        <v>45283</v>
+      <c r="E352" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>4</v>
@@ -9055,8 +9059,8 @@
       <c r="D353" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E353" s="2">
-        <v>45284</v>
+      <c r="E353" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>4</v>
@@ -9075,8 +9079,8 @@
       <c r="D354" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E354" s="2">
-        <v>45285</v>
+      <c r="E354" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>4</v>
@@ -9095,8 +9099,8 @@
       <c r="D355" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E355" s="2">
-        <v>45286</v>
+      <c r="E355" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>4</v>
@@ -9115,8 +9119,8 @@
       <c r="D356" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E356" s="2">
-        <v>45287</v>
+      <c r="E356" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>4</v>
@@ -9135,8 +9139,8 @@
       <c r="D357" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E357" s="2">
-        <v>45288</v>
+      <c r="E357" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>4</v>
@@ -9155,8 +9159,8 @@
       <c r="D358" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E358" s="2">
-        <v>45289</v>
+      <c r="E358" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>4</v>
@@ -9175,8 +9179,8 @@
       <c r="D359" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E359" s="2">
-        <v>45290</v>
+      <c r="E359" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F359" s="1" t="s">
         <v>4</v>
@@ -9195,8 +9199,8 @@
       <c r="D360" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E360" s="2">
-        <v>45291</v>
+      <c r="E360" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F360" s="1" t="s">
         <v>4</v>
@@ -9215,8 +9219,8 @@
       <c r="D361" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E361" s="2">
-        <v>45292</v>
+      <c r="E361" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F361" s="1" t="s">
         <v>4</v>
@@ -9235,8 +9239,8 @@
       <c r="D362" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E362" s="2">
-        <v>45293</v>
+      <c r="E362" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F362" s="1" t="s">
         <v>4</v>
@@ -9255,8 +9259,8 @@
       <c r="D363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E363" s="2">
-        <v>45294</v>
+      <c r="E363" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F363" s="1" t="s">
         <v>4</v>
@@ -9275,8 +9279,8 @@
       <c r="D364" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E364" s="2">
-        <v>45295</v>
+      <c r="E364" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F364" s="1" t="s">
         <v>4</v>
@@ -9295,8 +9299,8 @@
       <c r="D365" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E365" s="2">
-        <v>45296</v>
+      <c r="E365" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F365" s="1" t="s">
         <v>4</v>
@@ -9315,8 +9319,8 @@
       <c r="D366" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E366" s="2">
-        <v>45297</v>
+      <c r="E366" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F366" s="1" t="s">
         <v>4</v>
@@ -9335,8 +9339,8 @@
       <c r="D367" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E367" s="2">
-        <v>45298</v>
+      <c r="E367" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F367" s="1" t="s">
         <v>4</v>
@@ -9355,8 +9359,8 @@
       <c r="D368" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E368" s="2">
-        <v>45299</v>
+      <c r="E368" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>4</v>
@@ -9375,8 +9379,8 @@
       <c r="D369" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E369" s="2">
-        <v>45300</v>
+      <c r="E369" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>4</v>
@@ -9395,8 +9399,8 @@
       <c r="D370" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E370" s="2">
-        <v>45301</v>
+      <c r="E370" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>4</v>
@@ -9415,8 +9419,8 @@
       <c r="D371" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E371" s="2">
-        <v>45302</v>
+      <c r="E371" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>4</v>
@@ -9435,8 +9439,8 @@
       <c r="D372" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E372" s="2">
-        <v>45303</v>
+      <c r="E372" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>4</v>
@@ -9455,8 +9459,8 @@
       <c r="D373" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E373" s="2">
-        <v>45304</v>
+      <c r="E373" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>4</v>
@@ -9475,8 +9479,8 @@
       <c r="D374" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E374" s="2">
-        <v>45305</v>
+      <c r="E374" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>4</v>
@@ -9495,8 +9499,8 @@
       <c r="D375" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E375" s="2">
-        <v>45306</v>
+      <c r="E375" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F375" s="1" t="s">
         <v>4</v>
@@ -9515,8 +9519,8 @@
       <c r="D376" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E376" s="2">
-        <v>45307</v>
+      <c r="E376" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F376" s="1" t="s">
         <v>4</v>
@@ -9535,8 +9539,8 @@
       <c r="D377" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E377" s="2">
-        <v>45308</v>
+      <c r="E377" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F377" s="1" t="s">
         <v>4</v>
@@ -9555,8 +9559,8 @@
       <c r="D378" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E378" s="2">
-        <v>45309</v>
+      <c r="E378" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F378" s="1" t="s">
         <v>4</v>
@@ -9575,8 +9579,8 @@
       <c r="D379" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E379" s="2">
-        <v>45310</v>
+      <c r="E379" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F379" s="1" t="s">
         <v>4</v>
@@ -9595,8 +9599,8 @@
       <c r="D380" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E380" s="2">
-        <v>45311</v>
+      <c r="E380" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>4</v>
@@ -9615,8 +9619,8 @@
       <c r="D381" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E381" s="2">
-        <v>45312</v>
+      <c r="E381" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>4</v>
@@ -9635,8 +9639,8 @@
       <c r="D382" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E382" s="2">
-        <v>45313</v>
+      <c r="E382" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>4</v>
@@ -9655,8 +9659,8 @@
       <c r="D383" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E383" s="2">
-        <v>45314</v>
+      <c r="E383" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>4</v>
@@ -9675,8 +9679,8 @@
       <c r="D384" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E384" s="2">
-        <v>45315</v>
+      <c r="E384" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>4</v>
@@ -9695,8 +9699,8 @@
       <c r="D385" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E385" s="2">
-        <v>45316</v>
+      <c r="E385" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>4</v>
@@ -9715,8 +9719,8 @@
       <c r="D386" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E386" s="2">
-        <v>45317</v>
+      <c r="E386" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>4</v>
@@ -9735,8 +9739,8 @@
       <c r="D387" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E387" s="2">
-        <v>45318</v>
+      <c r="E387" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>4</v>
@@ -9755,8 +9759,8 @@
       <c r="D388" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E388" s="2">
-        <v>45319</v>
+      <c r="E388" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>4</v>
@@ -9775,8 +9779,8 @@
       <c r="D389" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E389" s="2">
-        <v>45320</v>
+      <c r="E389" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>4</v>
@@ -9795,8 +9799,8 @@
       <c r="D390" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E390" s="2">
-        <v>45321</v>
+      <c r="E390" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>4</v>
@@ -9815,8 +9819,8 @@
       <c r="D391" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E391" s="2">
-        <v>45322</v>
+      <c r="E391" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F391" s="1" t="s">
         <v>4</v>
@@ -9835,8 +9839,8 @@
       <c r="D392" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E392" s="2">
-        <v>45323</v>
+      <c r="E392" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F392" s="1" t="s">
         <v>4</v>
@@ -9855,8 +9859,8 @@
       <c r="D393" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E393" s="2">
-        <v>45324</v>
+      <c r="E393" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F393" s="1" t="s">
         <v>4</v>
@@ -9875,8 +9879,8 @@
       <c r="D394" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E394" s="2">
-        <v>45325</v>
+      <c r="E394" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F394" s="1" t="s">
         <v>4</v>
@@ -9895,8 +9899,8 @@
       <c r="D395" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E395" s="2">
-        <v>45326</v>
+      <c r="E395" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F395" s="1" t="s">
         <v>4</v>
@@ -9915,8 +9919,8 @@
       <c r="D396" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E396" s="2">
-        <v>45327</v>
+      <c r="E396" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F396" s="1" t="s">
         <v>4</v>
@@ -9935,8 +9939,8 @@
       <c r="D397" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E397" s="2">
-        <v>45328</v>
+      <c r="E397" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F397" s="1" t="s">
         <v>4</v>
@@ -9955,8 +9959,8 @@
       <c r="D398" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E398" s="2">
-        <v>45329</v>
+      <c r="E398" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F398" s="1" t="s">
         <v>4</v>
@@ -9975,8 +9979,8 @@
       <c r="D399" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E399" s="2">
-        <v>45330</v>
+      <c r="E399" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F399" s="1" t="s">
         <v>4</v>
@@ -9995,8 +9999,8 @@
       <c r="D400" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E400" s="2">
-        <v>45331</v>
+      <c r="E400" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>4</v>
@@ -10015,8 +10019,8 @@
       <c r="D401" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E401" s="2">
-        <v>45332</v>
+      <c r="E401" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>4</v>
@@ -10035,8 +10039,8 @@
       <c r="D402" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E402" s="2">
-        <v>45333</v>
+      <c r="E402" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>4</v>
@@ -10055,8 +10059,8 @@
       <c r="D403" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E403" s="2">
-        <v>45334</v>
+      <c r="E403" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>4</v>
@@ -10075,8 +10079,8 @@
       <c r="D404" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E404" s="2">
-        <v>45335</v>
+      <c r="E404" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>4</v>
@@ -10095,8 +10099,8 @@
       <c r="D405" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E405" s="2">
-        <v>45336</v>
+      <c r="E405" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>4</v>
@@ -10115,8 +10119,8 @@
       <c r="D406" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E406" s="2">
-        <v>45337</v>
+      <c r="E406" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>4</v>
@@ -10135,8 +10139,8 @@
       <c r="D407" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E407" s="2">
-        <v>45338</v>
+      <c r="E407" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F407" s="1" t="s">
         <v>4</v>
@@ -10155,8 +10159,8 @@
       <c r="D408" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E408" s="2">
-        <v>45339</v>
+      <c r="E408" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F408" s="1" t="s">
         <v>4</v>
@@ -10175,8 +10179,8 @@
       <c r="D409" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E409" s="2">
-        <v>45340</v>
+      <c r="E409" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F409" s="1" t="s">
         <v>4</v>
@@ -10195,8 +10199,8 @@
       <c r="D410" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E410" s="2">
-        <v>45341</v>
+      <c r="E410" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F410" s="1" t="s">
         <v>4</v>
@@ -10215,8 +10219,8 @@
       <c r="D411" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E411" s="2">
-        <v>45342</v>
+      <c r="E411" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F411" s="1" t="s">
         <v>4</v>
@@ -10235,8 +10239,8 @@
       <c r="D412" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E412" s="2">
-        <v>45343</v>
+      <c r="E412" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F412" s="1" t="s">
         <v>4</v>
@@ -10255,8 +10259,8 @@
       <c r="D413" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E413" s="2">
-        <v>45344</v>
+      <c r="E413" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F413" s="1" t="s">
         <v>4</v>
@@ -10275,8 +10279,8 @@
       <c r="D414" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E414" s="2">
-        <v>45345</v>
+      <c r="E414" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F414" s="1" t="s">
         <v>4</v>
@@ -10295,8 +10299,8 @@
       <c r="D415" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E415" s="2">
-        <v>45346</v>
+      <c r="E415" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F415" s="1" t="s">
         <v>4</v>
@@ -10315,8 +10319,8 @@
       <c r="D416" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E416" s="2">
-        <v>45347</v>
+      <c r="E416" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>4</v>
@@ -10335,8 +10339,8 @@
       <c r="D417" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E417" s="2">
-        <v>45348</v>
+      <c r="E417" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>4</v>
@@ -10355,8 +10359,8 @@
       <c r="D418" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E418" s="2">
-        <v>45349</v>
+      <c r="E418" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>4</v>
@@ -10375,8 +10379,8 @@
       <c r="D419" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E419" s="2">
-        <v>45350</v>
+      <c r="E419" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>4</v>
@@ -10395,8 +10399,8 @@
       <c r="D420" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E420" s="2">
-        <v>45351</v>
+      <c r="E420" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>4</v>
@@ -10415,8 +10419,8 @@
       <c r="D421" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E421" s="2">
-        <v>45352</v>
+      <c r="E421" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>4</v>
@@ -10435,8 +10439,8 @@
       <c r="D422" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E422" s="2">
-        <v>45353</v>
+      <c r="E422" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>4</v>
@@ -10455,8 +10459,8 @@
       <c r="D423" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E423" s="2">
-        <v>45354</v>
+      <c r="E423" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F423" s="1" t="s">
         <v>4</v>
@@ -10475,8 +10479,8 @@
       <c r="D424" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E424" s="2">
-        <v>45355</v>
+      <c r="E424" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F424" s="1" t="s">
         <v>4</v>
@@ -10495,8 +10499,8 @@
       <c r="D425" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E425" s="2">
-        <v>45356</v>
+      <c r="E425" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F425" s="1" t="s">
         <v>4</v>
@@ -10515,8 +10519,8 @@
       <c r="D426" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E426" s="2">
-        <v>45357</v>
+      <c r="E426" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F426" s="1" t="s">
         <v>4</v>
@@ -10535,8 +10539,8 @@
       <c r="D427" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E427" s="2">
-        <v>45358</v>
+      <c r="E427" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F427" s="1" t="s">
         <v>4</v>
@@ -10555,8 +10559,8 @@
       <c r="D428" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E428" s="2">
-        <v>45359</v>
+      <c r="E428" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F428" s="1" t="s">
         <v>4</v>
@@ -10575,8 +10579,8 @@
       <c r="D429" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E429" s="2">
-        <v>45360</v>
+      <c r="E429" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F429" s="1" t="s">
         <v>4</v>
@@ -10595,8 +10599,8 @@
       <c r="D430" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E430" s="2">
-        <v>45361</v>
+      <c r="E430" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F430" s="1" t="s">
         <v>4</v>
@@ -10615,8 +10619,8 @@
       <c r="D431" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E431" s="2">
-        <v>45362</v>
+      <c r="E431" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F431" s="1" t="s">
         <v>4</v>
@@ -10635,8 +10639,8 @@
       <c r="D432" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E432" s="2">
-        <v>45363</v>
+      <c r="E432" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>4</v>
@@ -10655,8 +10659,8 @@
       <c r="D433" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E433" s="2">
-        <v>45364</v>
+      <c r="E433" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>4</v>
@@ -10675,8 +10679,8 @@
       <c r="D434" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E434" s="2">
-        <v>45365</v>
+      <c r="E434" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>4</v>
@@ -10695,8 +10699,8 @@
       <c r="D435" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E435" s="2">
-        <v>45366</v>
+      <c r="E435" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>4</v>
@@ -10715,8 +10719,8 @@
       <c r="D436" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E436" s="2">
-        <v>45367</v>
+      <c r="E436" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>4</v>
@@ -10735,8 +10739,8 @@
       <c r="D437" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E437" s="2">
-        <v>45368</v>
+      <c r="E437" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>4</v>
@@ -10755,8 +10759,8 @@
       <c r="D438" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E438" s="2">
-        <v>45369</v>
+      <c r="E438" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>4</v>
@@ -10775,8 +10779,8 @@
       <c r="D439" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E439" s="2">
-        <v>45370</v>
+      <c r="E439" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F439" s="1" t="s">
         <v>4</v>
@@ -10795,8 +10799,8 @@
       <c r="D440" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E440" s="2">
-        <v>45371</v>
+      <c r="E440" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F440" s="1" t="s">
         <v>4</v>
@@ -10815,8 +10819,8 @@
       <c r="D441" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E441" s="2">
-        <v>45372</v>
+      <c r="E441" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F441" s="1" t="s">
         <v>4</v>
@@ -10835,8 +10839,8 @@
       <c r="D442" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E442" s="2">
-        <v>45373</v>
+      <c r="E442" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F442" s="1" t="s">
         <v>4</v>
@@ -10855,8 +10859,8 @@
       <c r="D443" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E443" s="2">
-        <v>45374</v>
+      <c r="E443" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F443" s="1" t="s">
         <v>4</v>
@@ -10875,8 +10879,8 @@
       <c r="D444" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E444" s="2">
-        <v>45375</v>
+      <c r="E444" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F444" s="1" t="s">
         <v>4</v>
@@ -10895,8 +10899,8 @@
       <c r="D445" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E445" s="2">
-        <v>45376</v>
+      <c r="E445" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F445" s="1" t="s">
         <v>4</v>
@@ -10915,8 +10919,8 @@
       <c r="D446" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E446" s="2">
-        <v>45377</v>
+      <c r="E446" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F446" s="1" t="s">
         <v>4</v>
@@ -10935,8 +10939,8 @@
       <c r="D447" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E447" s="2">
-        <v>45378</v>
+      <c r="E447" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F447" s="1" t="s">
         <v>4</v>
@@ -10955,8 +10959,8 @@
       <c r="D448" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E448" s="2">
-        <v>45379</v>
+      <c r="E448" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>4</v>
@@ -10975,8 +10979,8 @@
       <c r="D449" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E449" s="2">
-        <v>45380</v>
+      <c r="E449" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>4</v>
@@ -10995,8 +10999,8 @@
       <c r="D450" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E450" s="2">
-        <v>45381</v>
+      <c r="E450" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>4</v>
@@ -11015,8 +11019,8 @@
       <c r="D451" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E451" s="2">
-        <v>45382</v>
+      <c r="E451" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>4</v>
@@ -11035,8 +11039,8 @@
       <c r="D452" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E452" s="2">
-        <v>45383</v>
+      <c r="E452" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>4</v>
@@ -11055,8 +11059,8 @@
       <c r="D453" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E453" s="2">
-        <v>45384</v>
+      <c r="E453" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>4</v>
@@ -11075,8 +11079,8 @@
       <c r="D454" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E454" s="2">
-        <v>45385</v>
+      <c r="E454" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>4</v>
@@ -11095,8 +11099,8 @@
       <c r="D455" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E455" s="2">
-        <v>45386</v>
+      <c r="E455" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F455" s="1" t="s">
         <v>4</v>
@@ -11115,8 +11119,8 @@
       <c r="D456" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E456" s="2">
-        <v>45387</v>
+      <c r="E456" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F456" s="1" t="s">
         <v>4</v>
@@ -11135,8 +11139,8 @@
       <c r="D457" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E457" s="2">
-        <v>45388</v>
+      <c r="E457" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F457" s="1" t="s">
         <v>4</v>
@@ -11155,8 +11159,8 @@
       <c r="D458" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E458" s="2">
-        <v>45389</v>
+      <c r="E458" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F458" s="1" t="s">
         <v>4</v>
@@ -11175,8 +11179,8 @@
       <c r="D459" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E459" s="2">
-        <v>45390</v>
+      <c r="E459" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F459" s="1" t="s">
         <v>4</v>
@@ -11195,8 +11199,8 @@
       <c r="D460" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E460" s="2">
-        <v>45391</v>
+      <c r="E460" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F460" s="1" t="s">
         <v>4</v>
@@ -11215,8 +11219,8 @@
       <c r="D461" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E461" s="2">
-        <v>45392</v>
+      <c r="E461" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F461" s="1" t="s">
         <v>4</v>
@@ -11235,8 +11239,8 @@
       <c r="D462" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E462" s="2">
-        <v>45393</v>
+      <c r="E462" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F462" s="1" t="s">
         <v>4</v>
@@ -11255,8 +11259,8 @@
       <c r="D463" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E463" s="2">
-        <v>45394</v>
+      <c r="E463" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F463" s="1" t="s">
         <v>4</v>
@@ -11275,8 +11279,8 @@
       <c r="D464" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E464" s="2">
-        <v>45395</v>
+      <c r="E464" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>4</v>
@@ -11295,8 +11299,8 @@
       <c r="D465" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E465" s="2">
-        <v>45396</v>
+      <c r="E465" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>4</v>
@@ -11315,8 +11319,8 @@
       <c r="D466" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E466" s="2">
-        <v>45397</v>
+      <c r="E466" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F466" s="1" t="s">
         <v>4</v>
@@ -11335,8 +11339,8 @@
       <c r="D467" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E467" s="2">
-        <v>45398</v>
+      <c r="E467" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>4</v>
@@ -11355,8 +11359,8 @@
       <c r="D468" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E468" s="2">
-        <v>45399</v>
+      <c r="E468" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F468" s="1" t="s">
         <v>4</v>
@@ -11375,8 +11379,8 @@
       <c r="D469" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E469" s="2">
-        <v>45400</v>
+      <c r="E469" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>4</v>
@@ -11395,8 +11399,8 @@
       <c r="D470" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E470" s="2">
-        <v>45401</v>
+      <c r="E470" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>4</v>
@@ -11415,8 +11419,8 @@
       <c r="D471" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E471" s="2">
-        <v>45402</v>
+      <c r="E471" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F471" s="1" t="s">
         <v>4</v>
@@ -11435,8 +11439,8 @@
       <c r="D472" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E472" s="2">
-        <v>45403</v>
+      <c r="E472" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F472" s="1" t="s">
         <v>4</v>
@@ -11455,8 +11459,8 @@
       <c r="D473" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E473" s="2">
-        <v>45404</v>
+      <c r="E473" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>4</v>
@@ -11475,8 +11479,8 @@
       <c r="D474" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E474" s="2">
-        <v>45405</v>
+      <c r="E474" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>4</v>
@@ -11495,8 +11499,8 @@
       <c r="D475" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E475" s="2">
-        <v>45406</v>
+      <c r="E475" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>4</v>
@@ -11515,8 +11519,8 @@
       <c r="D476" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E476" s="2">
-        <v>45407</v>
+      <c r="E476" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>4</v>
@@ -11535,8 +11539,8 @@
       <c r="D477" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E477" s="2">
-        <v>45408</v>
+      <c r="E477" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>4</v>
@@ -11555,8 +11559,8 @@
       <c r="D478" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E478" s="2">
-        <v>45409</v>
+      <c r="E478" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>4</v>
@@ -11575,8 +11579,8 @@
       <c r="D479" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E479" s="2">
-        <v>45410</v>
+      <c r="E479" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>4</v>
@@ -11595,8 +11599,8 @@
       <c r="D480" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E480" s="2">
-        <v>45411</v>
+      <c r="E480" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>4</v>
@@ -11615,8 +11619,8 @@
       <c r="D481" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E481" s="2">
-        <v>45412</v>
+      <c r="E481" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>4</v>
@@ -11635,8 +11639,8 @@
       <c r="D482" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E482" s="2">
-        <v>45413</v>
+      <c r="E482" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>4</v>
@@ -11655,8 +11659,8 @@
       <c r="D483" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E483" s="2">
-        <v>45414</v>
+      <c r="E483" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>4</v>
@@ -11675,8 +11679,8 @@
       <c r="D484" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E484" s="2">
-        <v>45415</v>
+      <c r="E484" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>4</v>
@@ -11695,8 +11699,8 @@
       <c r="D485" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E485" s="2">
-        <v>45416</v>
+      <c r="E485" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>4</v>
@@ -11715,8 +11719,8 @@
       <c r="D486" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E486" s="2">
-        <v>45417</v>
+      <c r="E486" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>4</v>
@@ -11735,8 +11739,8 @@
       <c r="D487" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E487" s="2">
-        <v>45418</v>
+      <c r="E487" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>4</v>
@@ -11755,8 +11759,8 @@
       <c r="D488" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E488" s="2">
-        <v>45419</v>
+      <c r="E488" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>4</v>
@@ -11775,8 +11779,8 @@
       <c r="D489" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E489" s="2">
-        <v>45420</v>
+      <c r="E489" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>4</v>
@@ -11795,8 +11799,8 @@
       <c r="D490" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E490" s="2">
-        <v>45421</v>
+      <c r="E490" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>4</v>
@@ -11815,8 +11819,8 @@
       <c r="D491" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E491" s="2">
-        <v>45422</v>
+      <c r="E491" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>4</v>
@@ -11835,8 +11839,8 @@
       <c r="D492" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E492" s="2">
-        <v>45423</v>
+      <c r="E492" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>4</v>
@@ -11855,8 +11859,8 @@
       <c r="D493" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E493" s="2">
-        <v>45424</v>
+      <c r="E493" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>4</v>
@@ -11875,8 +11879,8 @@
       <c r="D494" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E494" s="2">
-        <v>45425</v>
+      <c r="E494" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>4</v>
@@ -11895,8 +11899,8 @@
       <c r="D495" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E495" s="2">
-        <v>45426</v>
+      <c r="E495" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>4</v>
@@ -11915,8 +11919,8 @@
       <c r="D496" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E496" s="2">
-        <v>45427</v>
+      <c r="E496" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>4</v>
@@ -11935,8 +11939,8 @@
       <c r="D497" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E497" s="2">
-        <v>45428</v>
+      <c r="E497" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>4</v>
@@ -11955,8 +11959,8 @@
       <c r="D498" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E498" s="2">
-        <v>45429</v>
+      <c r="E498" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>4</v>
@@ -11975,8 +11979,8 @@
       <c r="D499" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E499" s="2">
-        <v>45430</v>
+      <c r="E499" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>4</v>
@@ -11995,8 +11999,8 @@
       <c r="D500" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E500" s="2">
-        <v>45431</v>
+      <c r="E500" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>4</v>
@@ -12015,8 +12019,8 @@
       <c r="D501" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E501" s="2">
-        <v>45432</v>
+      <c r="E501" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>4</v>
@@ -12035,8 +12039,8 @@
       <c r="D502" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E502" s="2">
-        <v>45433</v>
+      <c r="E502" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>4</v>
@@ -12055,8 +12059,8 @@
       <c r="D503" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E503" s="2">
-        <v>45434</v>
+      <c r="E503" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>4</v>
@@ -12075,8 +12079,8 @@
       <c r="D504" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E504" s="2">
-        <v>45435</v>
+      <c r="E504" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>4</v>
@@ -12095,8 +12099,8 @@
       <c r="D505" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E505" s="2">
-        <v>45436</v>
+      <c r="E505" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>4</v>
@@ -12115,8 +12119,8 @@
       <c r="D506" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E506" s="2">
-        <v>45437</v>
+      <c r="E506" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>4</v>
@@ -12135,8 +12139,8 @@
       <c r="D507" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E507" s="2">
-        <v>45438</v>
+      <c r="E507" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>4</v>
@@ -12155,8 +12159,8 @@
       <c r="D508" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E508" s="2">
-        <v>45439</v>
+      <c r="E508" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>4</v>
@@ -12175,8 +12179,8 @@
       <c r="D509" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E509" s="2">
-        <v>45440</v>
+      <c r="E509" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>4</v>
@@ -12195,8 +12199,8 @@
       <c r="D510" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E510" s="2">
-        <v>45441</v>
+      <c r="E510" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>4</v>
@@ -12215,8 +12219,8 @@
       <c r="D511" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E511" s="2">
-        <v>45442</v>
+      <c r="E511" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>4</v>
@@ -12235,8 +12239,8 @@
       <c r="D512" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E512" s="2">
-        <v>45443</v>
+      <c r="E512" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>4</v>
@@ -12255,8 +12259,8 @@
       <c r="D513" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E513" s="2">
-        <v>45444</v>
+      <c r="E513" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>4</v>
@@ -12275,8 +12279,8 @@
       <c r="D514" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E514" s="2">
-        <v>45445</v>
+      <c r="E514" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>4</v>
@@ -12295,8 +12299,8 @@
       <c r="D515" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E515" s="2">
-        <v>45446</v>
+      <c r="E515" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>4</v>
@@ -12315,8 +12319,8 @@
       <c r="D516" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E516" s="2">
-        <v>45447</v>
+      <c r="E516" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>4</v>
@@ -12335,8 +12339,8 @@
       <c r="D517" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E517" s="2">
-        <v>45448</v>
+      <c r="E517" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>4</v>
@@ -12355,8 +12359,8 @@
       <c r="D518" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E518" s="2">
-        <v>45449</v>
+      <c r="E518" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>4</v>
@@ -12375,8 +12379,8 @@
       <c r="D519" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E519" s="2">
-        <v>45450</v>
+      <c r="E519" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>4</v>
@@ -12395,8 +12399,8 @@
       <c r="D520" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E520" s="2">
-        <v>45451</v>
+      <c r="E520" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>4</v>
